--- a/xlsx/kaggle组队名单.xlsx
+++ b/xlsx/kaggle组队名单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>队名</t>
   </si>
@@ -402,6 +402,9 @@
     <t>DM_032</t>
   </si>
   <si>
+    <t>徐伟林</t>
+  </si>
+  <si>
     <t>刘思远</t>
   </si>
   <si>
@@ -438,82 +441,88 @@
     <t>郑晓钿</t>
   </si>
   <si>
+    <t>DM_036</t>
+  </si>
+  <si>
+    <t>13349082</t>
+  </si>
+  <si>
+    <t>欧远清</t>
+  </si>
+  <si>
+    <t>13349125</t>
+  </si>
+  <si>
+    <t>吴颖</t>
+  </si>
+  <si>
+    <t>沈童</t>
+  </si>
+  <si>
     <t>未提交组队信息名单</t>
   </si>
   <si>
-    <t>13349074</t>
+    <t>13349045</t>
   </si>
   <si>
     <t>靳韬</t>
   </si>
   <si>
-    <t>13349154</t>
-  </si>
-  <si>
-    <t>欧远清</t>
-  </si>
-  <si>
-    <t>13349159</t>
+    <t>13349089</t>
   </si>
   <si>
     <t>戚皓泰</t>
   </si>
   <si>
-    <t>13349162</t>
+    <t>13349091</t>
   </si>
   <si>
     <t>邱戈</t>
   </si>
   <si>
-    <t>13349171</t>
+    <t>13349097</t>
   </si>
   <si>
     <t>苏彦彬</t>
   </si>
   <si>
-    <t>13349173</t>
+    <t>13349098</t>
   </si>
   <si>
     <t>苏逸扬</t>
   </si>
   <si>
-    <t>13349058</t>
+    <t>13349113</t>
   </si>
   <si>
     <t>王蓉</t>
   </si>
   <si>
-    <t>13349128</t>
-  </si>
-  <si>
-    <t>吴颖</t>
-  </si>
-  <si>
-    <t>13349130</t>
+    <t>13349129</t>
   </si>
   <si>
     <t>伍泽林</t>
   </si>
   <si>
-    <t>13349032</t>
+    <t>13349141</t>
   </si>
   <si>
     <t>杨需云逸</t>
   </si>
   <si>
-    <t>13349133</t>
+    <t>13349157</t>
   </si>
   <si>
     <t>张志凯</t>
   </si>
   <si>
-    <t>13349164</t>
+    <t>13349161</t>
   </si>
   <si>
     <t>郑辉杰</t>
   </si>
   <si>
-    <t>13349098</t>
+    <t>13349169</t>
   </si>
   <si>
     <t>钟少辉</t>
@@ -525,11 +534,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,45 +593,6 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color indexed="8"/>
       <name val="Verdana"/>
       <charset val="134"/>
@@ -634,9 +604,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,17 +625,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,14 +634,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -691,35 +658,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,15 +703,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,24 +734,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,37 +763,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,61 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,67 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,9 +989,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,7 +1026,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,15 +1042,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,11 +1063,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,10 +1077,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,19 +1089,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,116 +1110,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1268,67 +1238,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1645,10 +1624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1696,7 +1675,7 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>13349130</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1708,7 +1687,7 @@
       <c r="B6" s="5">
         <v>13349064</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1717,14 +1696,14 @@
       <c r="B7" s="5">
         <v>13349065</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
@@ -1765,7 +1744,7 @@
       <c r="B13" s="5">
         <v>13349160</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1774,14 +1753,14 @@
       <c r="B14" s="5">
         <v>13349162</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
@@ -1790,7 +1769,7 @@
       <c r="B16" s="5">
         <v>13354120</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1799,7 +1778,7 @@
       <c r="B17" s="5">
         <v>13349135</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1808,14 +1787,14 @@
       <c r="B18" s="5">
         <v>13349171</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
@@ -1824,7 +1803,7 @@
       <c r="B20" s="5">
         <v>13349014</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1833,7 +1812,7 @@
       <c r="B21" s="5">
         <v>13354073</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1842,14 +1821,14 @@
       <c r="B22" s="5">
         <v>13349112</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
@@ -1858,7 +1837,7 @@
       <c r="B24" s="5">
         <v>13349043</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1867,7 +1846,7 @@
       <c r="B25" s="5">
         <v>13349025</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1876,48 +1855,48 @@
       <c r="B26" s="5">
         <v>13349046</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="7">
         <v>13349147</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4"/>
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <v>13349173</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4"/>
-      <c r="B30" s="9">
+      <c r="B30" s="7">
         <v>13349167</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
@@ -1926,7 +1905,7 @@
       <c r="B32" s="5">
         <v>13349008</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1935,7 +1914,7 @@
       <c r="B33" s="5">
         <v>13349058</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1944,14 +1923,14 @@
       <c r="B34" s="5">
         <v>13349062</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="8"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
@@ -1960,7 +1939,7 @@
       <c r="B36" s="5">
         <v>13331360</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1969,7 +1948,7 @@
       <c r="B37" s="5">
         <v>13349155</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1978,14 +1957,14 @@
       <c r="B38" s="5">
         <v>13349145</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
@@ -1994,7 +1973,7 @@
       <c r="B40" s="5">
         <v>13354007</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2003,7 +1982,7 @@
       <c r="B41" s="5">
         <v>13354034</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2012,14 +1991,14 @@
       <c r="B42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
@@ -2028,7 +2007,7 @@
       <c r="B44" s="5">
         <v>13349007</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2037,7 +2016,7 @@
       <c r="B45" s="5">
         <v>13349006</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2046,14 +2025,14 @@
       <c r="B46" s="5">
         <v>13349016</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="8"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
@@ -2062,7 +2041,7 @@
       <c r="B48" s="5">
         <v>13349085</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2071,7 +2050,7 @@
       <c r="B49" s="5">
         <v>13349109</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2080,14 +2059,14 @@
       <c r="B50" s="5">
         <v>13349090</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="8"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
@@ -2096,7 +2075,7 @@
       <c r="B52" s="5">
         <v>13349101</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2105,7 +2084,7 @@
       <c r="B53" s="5">
         <v>13349116</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2114,14 +2093,14 @@
       <c r="B54" s="5">
         <v>13349114</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="8"/>
+      <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
@@ -2130,7 +2109,7 @@
       <c r="B56" s="5">
         <v>13349106</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2139,7 +2118,7 @@
       <c r="B57" s="5">
         <v>13349123</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2148,48 +2127,48 @@
       <c r="B58" s="5">
         <v>13349075</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="8"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="7">
         <v>13349063</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
-      <c r="B61" s="9">
+      <c r="B61" s="7">
         <v>13349041</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
-      <c r="B62" s="9">
+      <c r="B62" s="7">
         <v>13349051</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="11"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
@@ -2198,7 +2177,7 @@
       <c r="B64" s="5">
         <v>13349136</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2207,7 +2186,7 @@
       <c r="B65" s="5">
         <v>13349139</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2216,14 +2195,14 @@
       <c r="B66" s="5">
         <v>13349154</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="8"/>
+      <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
@@ -2232,7 +2211,7 @@
       <c r="B68" s="5">
         <v>13349128</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2241,7 +2220,7 @@
       <c r="B69" s="5">
         <v>13349119</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2250,675 +2229,719 @@
       <c r="B70" s="5">
         <v>13349133</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="8"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="10">
         <v>13349040</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10">
         <v>13349049</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10">
         <v>13349061</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="13">
         <v>13349071</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="16">
+      <c r="A77" s="9"/>
+      <c r="B77" s="13">
         <v>13349079</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="13">
         <v>13349047</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="18"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="13">
         <v>13331086</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="16">
+      <c r="A82" s="16"/>
+      <c r="B82" s="13">
         <v>13349138</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="16">
+      <c r="A83" s="16"/>
+      <c r="B83" s="13">
         <v>13349166</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="18"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="14"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="13">
         <v>13349036</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="12"/>
-      <c r="B86" s="16">
+      <c r="A86" s="9"/>
+      <c r="B86" s="13">
         <v>13349038</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="12"/>
-      <c r="B87" s="16">
+      <c r="A87" s="9"/>
+      <c r="B87" s="13">
         <v>13349028</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="18"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="14"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="13">
         <v>13349018</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="12"/>
-      <c r="B90" s="16">
+      <c r="A90" s="9"/>
+      <c r="B90" s="13">
         <v>13349020</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="12"/>
-      <c r="B91" s="16">
+      <c r="A91" s="9"/>
+      <c r="B91" s="13">
         <v>13349003</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="18"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="14"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="13">
         <v>13349144</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="12"/>
-      <c r="B94" s="16">
+      <c r="A94" s="9"/>
+      <c r="B94" s="13">
         <v>13354165</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="12"/>
-      <c r="B95" s="16">
+      <c r="A95" s="9"/>
+      <c r="B95" s="13">
         <v>13349165</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="18"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="14"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B97" s="17">
         <v>13349023</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="12"/>
-      <c r="B98" s="20">
+      <c r="A98" s="9"/>
+      <c r="B98" s="17">
         <v>13349027</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="12"/>
-      <c r="B99" s="20">
+      <c r="A99" s="9"/>
+      <c r="B99" s="17">
         <v>13349052</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="18"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="13">
         <v>13349068</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="12"/>
-      <c r="B102" s="16">
+      <c r="A102" s="9"/>
+      <c r="B102" s="13">
         <v>13349108</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="12"/>
-      <c r="B103" s="16">
+      <c r="A103" s="9"/>
+      <c r="B103" s="13">
         <v>13349121</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="18"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="14"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="11"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="16">
+      <c r="B105" s="13">
         <v>13349120</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="12"/>
-      <c r="B106" s="16">
+      <c r="A106" s="9"/>
+      <c r="B106" s="13">
         <v>13349122</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="12"/>
-      <c r="B107" s="16">
+      <c r="A107" s="9"/>
+      <c r="B107" s="13">
         <v>13349083</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="18"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="14"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="16">
+      <c r="B109" s="13">
         <v>13349050</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="22"/>
-      <c r="B110" s="16">
+      <c r="A110" s="19"/>
+      <c r="B110" s="13">
         <v>13349078</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="22"/>
-      <c r="B111" s="16">
+      <c r="A111" s="19"/>
+      <c r="B111" s="13">
         <v>13349005</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="18"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="14"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B113" s="16">
+      <c r="B113" s="13">
         <v>13349037</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="12"/>
-      <c r="B114" s="16">
+      <c r="A114" s="9"/>
+      <c r="B114" s="13">
         <v>13349055</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="12"/>
-      <c r="B115" s="16">
+      <c r="A115" s="9"/>
+      <c r="B115" s="13">
         <v>13349076</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="18"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="14"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="16">
+      <c r="B117" s="13">
         <v>13350025</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="12"/>
-      <c r="B118" s="16">
+      <c r="A118" s="9"/>
+      <c r="B118" s="13">
         <v>13349170</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="12"/>
-      <c r="B119" s="16">
+      <c r="A119" s="9"/>
+      <c r="B119" s="13">
         <v>13349152</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="18"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="14"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B121" s="16">
+      <c r="B121" s="13">
         <v>13341900</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="12"/>
-      <c r="B122" s="16">
+      <c r="A122" s="9"/>
+      <c r="B122" s="13">
         <v>13349035</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="12"/>
-      <c r="B123" s="16">
+      <c r="A123" s="9"/>
+      <c r="B123" s="13">
         <v>13349095</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="18"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="14"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="11"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="10">
+        <v>12334185</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="20"/>
+      <c r="B126" s="13">
         <v>13349073</v>
       </c>
-      <c r="C125" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="12"/>
-      <c r="B126" s="16">
+      <c r="C126" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="20"/>
+      <c r="B127" s="13">
         <v>13349074</v>
       </c>
-      <c r="C126" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="18"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="14"/>
+      <c r="C127" s="14" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" s="16">
+      <c r="A128" s="15"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="11"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="13">
         <v>13349059</v>
       </c>
-      <c r="C128" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="12"/>
-      <c r="B129" s="16">
+      <c r="C129" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="9"/>
+      <c r="B130" s="13">
         <v>13349060</v>
       </c>
-      <c r="C129" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="12"/>
-      <c r="B130" s="16">
+      <c r="C130" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="9"/>
+      <c r="B131" s="13">
         <v>13349009</v>
       </c>
-      <c r="C130" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="23"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="24" t="s">
+      <c r="C131" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="1">
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="22"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" s="1">
         <v>13349021</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="24"/>
-      <c r="B133" s="1">
-        <v>13349032</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="24"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="24" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="4"/>
+      <c r="B134" s="1">
+        <v>13349032</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B135" s="1">
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" s="1">
         <v>13349164</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="24"/>
-      <c r="B136" s="1">
-        <v>13349163</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="3" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" s="4"/>
+      <c r="B137" s="1">
+        <v>13349163</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
-      <c r="B139" s="25" t="s">
+    <row r="138" spans="1:1">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="B139" s="24" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="140" spans="2:3">
-      <c r="B140" s="25" t="s">
+      <c r="C139" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="26" t="s">
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="23"/>
+      <c r="B140" s="24" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="141" spans="2:3">
-      <c r="B141" s="25" t="s">
+      <c r="C140" s="25" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="23"/>
+      <c r="B141" s="1">
+        <v>13349093</v>
       </c>
       <c r="C141" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
-      <c r="B142" s="25" t="s">
+    <row r="142" spans="1:3">
+      <c r="A142" s="4"/>
+      <c r="C142" s="27"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C142" s="26" t="s">
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="143" spans="2:3">
-      <c r="B143" s="25" t="s">
+      <c r="C150" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="26" t="s">
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="144" spans="2:3">
-      <c r="B144" s="25" t="s">
+      <c r="C151" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C144" s="26" t="s">
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="25" t="s">
+      <c r="C152" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="26" t="s">
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="28" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="25" t="s">
+      <c r="C153" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C146" s="26" t="s">
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="28" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="25" t="s">
+      <c r="C154" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C147" s="26" t="s">
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="28" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="25" t="s">
+      <c r="C155" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C148" s="26" t="s">
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="28" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="B149" s="25" t="s">
+      <c r="C156" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C149" s="26" t="s">
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="28" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="B150" s="25" t="s">
+      <c r="C157" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C150" s="26" t="s">
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="28" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="151" spans="2:3">
-      <c r="B151" s="25" t="s">
+      <c r="C158" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C151" s="26" t="s">
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="28" t="s">
         <v>166</v>
       </c>
+      <c r="C159" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A9:A11"/>
@@ -2950,10 +2973,11 @@
     <mergeCell ref="A113:A115"/>
     <mergeCell ref="A117:A119"/>
     <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A139:A141"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/xlsx/kaggle组队名单.xlsx
+++ b/xlsx/kaggle组队名单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>队名</t>
   </si>
@@ -27,7 +27,7 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>DM_000</t>
+    <t>DM000</t>
   </si>
   <si>
     <t>张子平</t>
@@ -36,7 +36,7 @@
     <t>张子悦</t>
   </si>
   <si>
-    <t>DM_001</t>
+    <t>DM001</t>
   </si>
   <si>
     <t>肖功伟</t>
@@ -48,7 +48,7 @@
     <t>林诗雯</t>
   </si>
   <si>
-    <t>DM_002</t>
+    <t>DM002</t>
   </si>
   <si>
     <t>卜林夕</t>
@@ -60,7 +60,7 @@
     <t>董嘉俐</t>
   </si>
   <si>
-    <t>DM_003</t>
+    <t>DM003</t>
   </si>
   <si>
     <t>张佐奇</t>
@@ -69,7 +69,7 @@
     <t>郑沛霖</t>
   </si>
   <si>
-    <t>DM_004</t>
+    <t>DM004</t>
   </si>
   <si>
     <t>黄钊鹏</t>
@@ -81,7 +81,7 @@
     <t>朱凌</t>
   </si>
   <si>
-    <t>DM_005</t>
+    <t>DM005</t>
   </si>
   <si>
     <t>陈远杰</t>
@@ -93,7 +93,7 @@
     <t>王钦</t>
   </si>
   <si>
-    <t>DM_006</t>
+    <t>DM006</t>
   </si>
   <si>
     <t>江志鑫</t>
@@ -105,7 +105,7 @@
     <t>赖日升</t>
   </si>
   <si>
-    <t>DM_007</t>
+    <t>DM007</t>
   </si>
   <si>
     <t>曾智</t>
@@ -117,7 +117,7 @@
     <t>钟家兴</t>
   </si>
   <si>
-    <t>DM_008</t>
+    <t>DM008</t>
   </si>
   <si>
     <t>陈庆</t>
@@ -129,7 +129,7 @@
     <t>林键</t>
   </si>
   <si>
-    <t>DM_009</t>
+    <t>DM009</t>
   </si>
   <si>
     <t>郑万山</t>
@@ -141,7 +141,7 @@
     <t>袁鸣</t>
   </si>
   <si>
-    <t>DM_010</t>
+    <t>DM010</t>
   </si>
   <si>
     <t>曹思琪</t>
@@ -156,7 +156,7 @@
     <t>陈土丽</t>
   </si>
   <si>
-    <t>DM_011</t>
+    <t>DM011</t>
   </si>
   <si>
     <t>陈俊达</t>
@@ -168,7 +168,7 @@
     <t>陈志锐</t>
   </si>
   <si>
-    <t>DM_012</t>
+    <t>DM012</t>
   </si>
   <si>
     <t>潘叶炜</t>
@@ -180,7 +180,7 @@
     <t>乔恩磊</t>
   </si>
   <si>
-    <t>DM_013</t>
+    <t>DM013</t>
   </si>
   <si>
     <t>孙鑫</t>
@@ -192,7 +192,7 @@
     <t>王思贵</t>
   </si>
   <si>
-    <t>DM_014</t>
+    <t>DM014</t>
   </si>
   <si>
     <t>唐彬钊</t>
@@ -204,7 +204,7 @@
     <t>刘洋</t>
   </si>
   <si>
-    <t>DM_015</t>
+    <t>DM015</t>
   </si>
   <si>
     <t>林俊潼</t>
@@ -216,7 +216,7 @@
     <t>劳嘉辉</t>
   </si>
   <si>
-    <t>DM_016</t>
+    <t>DM016</t>
   </si>
   <si>
     <t>徐文涛</t>
@@ -228,7 +228,7 @@
     <t>张旭 </t>
   </si>
   <si>
-    <t>DM_017</t>
+    <t>DM017</t>
   </si>
   <si>
     <t>伍良伟</t>
@@ -240,7 +240,7 @@
     <t>谢宏宇</t>
   </si>
   <si>
-    <t>DM_018</t>
+    <t>DM018</t>
   </si>
   <si>
     <t>黄武伟</t>
@@ -252,7 +252,7 @@
     <t>廖远强</t>
   </si>
   <si>
-    <t>DM_019</t>
+    <t>DM019</t>
   </si>
   <si>
     <t>刘乃熙</t>
@@ -261,13 +261,13 @@
     <t>吕威</t>
   </si>
   <si>
-    <t>DM_020</t>
+    <t>DM020</t>
   </si>
   <si>
     <t>赖少凡</t>
   </si>
   <si>
-    <t>DM_021</t>
+    <t>DM021</t>
   </si>
   <si>
     <t>黄捷</t>
@@ -279,7 +279,7 @@
     <t>郑玉婷</t>
   </si>
   <si>
-    <t>DM_022</t>
+    <t>DM022</t>
   </si>
   <si>
     <t>黄方维</t>
@@ -291,7 +291,7 @@
     <t>高峥嵘</t>
   </si>
   <si>
-    <t>DM_023</t>
+    <t>DM023</t>
   </si>
   <si>
     <t>崔嘉洛</t>
@@ -303,7 +303,7 @@
     <t>蔡树豪</t>
   </si>
   <si>
-    <t>DM_024</t>
+    <t>DM024</t>
   </si>
   <si>
     <t>余嘉豪</t>
@@ -315,7 +315,7 @@
     <t>郑永华</t>
   </si>
   <si>
-    <t>DM_025</t>
+    <t>DM025</t>
   </si>
   <si>
     <t>段佳利</t>
@@ -327,7 +327,7 @@
     <t>劳晓华</t>
   </si>
   <si>
-    <t>DM_026</t>
+    <t>DM026</t>
   </si>
   <si>
     <t>刘高亮</t>
@@ -339,7 +339,7 @@
     <t>温诗华</t>
   </si>
   <si>
-    <t>DM_027</t>
+    <t>DM027</t>
   </si>
   <si>
     <t>温伯轩</t>
@@ -351,7 +351,7 @@
     <t>潘秉华</t>
   </si>
   <si>
-    <t>DM_028</t>
+    <t>DM028</t>
   </si>
   <si>
     <t>赖昱丞</t>
@@ -363,7 +363,7 @@
     <t>陈观潮</t>
   </si>
   <si>
-    <t>DM_029</t>
+    <t>DM029</t>
   </si>
   <si>
     <t>黄若孜</t>
@@ -375,7 +375,7 @@
     <t>刘子涵</t>
   </si>
   <si>
-    <t>DM_030</t>
+    <t>DM030</t>
   </si>
   <si>
     <t>张权</t>
@@ -387,7 +387,7 @@
     <t>张华键</t>
   </si>
   <si>
-    <t>DM_031</t>
+    <t>DM031</t>
   </si>
   <si>
     <t>孙君健</t>
@@ -399,7 +399,7 @@
     <t>宋启炎</t>
   </si>
   <si>
-    <t>DM_032</t>
+    <t>DM032</t>
   </si>
   <si>
     <t>徐伟林</t>
@@ -411,7 +411,7 @@
     <t>刘旺</t>
   </si>
   <si>
-    <t>DM_033</t>
+    <t>DM033</t>
   </si>
   <si>
     <t>廖枫</t>
@@ -423,7 +423,7 @@
     <t>陈榕涛</t>
   </si>
   <si>
-    <t>DM_034</t>
+    <t>DM034</t>
   </si>
   <si>
     <t>郭家名</t>
@@ -432,7 +432,7 @@
     <t>丁鹏</t>
   </si>
   <si>
-    <t>DM_035</t>
+    <t>DM035</t>
   </si>
   <si>
     <t>郑怡</t>
@@ -441,7 +441,7 @@
     <t>郑晓钿</t>
   </si>
   <si>
-    <t>DM_036</t>
+    <t>DM036</t>
   </si>
   <si>
     <t>13349082</t>
@@ -459,6 +459,27 @@
     <t>沈童</t>
   </si>
   <si>
+    <t>DM037</t>
+  </si>
+  <si>
+    <t>13349094</t>
+  </si>
+  <si>
+    <t>沈阳洋</t>
+  </si>
+  <si>
+    <t>13349098</t>
+  </si>
+  <si>
+    <t>苏逸扬</t>
+  </si>
+  <si>
+    <t>13349129</t>
+  </si>
+  <si>
+    <t>伍泽林</t>
+  </si>
+  <si>
     <t>未提交组队信息名单</t>
   </si>
   <si>
@@ -486,22 +507,10 @@
     <t>苏彦彬</t>
   </si>
   <si>
-    <t>13349098</t>
-  </si>
-  <si>
-    <t>苏逸扬</t>
-  </si>
-  <si>
     <t>13349113</t>
   </si>
   <si>
     <t>王蓉</t>
-  </si>
-  <si>
-    <t>13349129</t>
-  </si>
-  <si>
-    <t>伍泽林</t>
   </si>
   <si>
     <t>13349141</t>
@@ -534,11 +543,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +566,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -586,7 +602,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -611,15 +627,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,6 +681,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -656,32 +719,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,31 +749,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,20 +763,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -763,6 +779,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -770,180 +960,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,17 +988,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,6 +1018,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1018,30 +1067,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,15 +1085,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1077,10 +1093,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,137 +1105,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,82 +1248,91 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1624,10 +1649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1659,7 +1684,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="5">
         <v>13349159</v>
       </c>
@@ -1668,7 +1693,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:3">
@@ -1683,27 +1708,27 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="5">
         <v>13349064</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>13349065</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
@@ -1717,7 +1742,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1">
         <v>13349002</v>
       </c>
@@ -1726,7 +1751,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1">
         <v>13349022</v>
       </c>
@@ -1735,7 +1760,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
@@ -1744,23 +1769,23 @@
       <c r="B13" s="5">
         <v>13349160</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>13349162</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
@@ -1769,32 +1794,32 @@
       <c r="B16" s="5">
         <v>13354120</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>13349135</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="5">
         <v>13349171</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
@@ -1803,32 +1828,32 @@
       <c r="B20" s="5">
         <v>13349014</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="5">
         <v>13354073</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="5">
         <v>13349112</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
@@ -1837,66 +1862,66 @@
       <c r="B24" s="5">
         <v>13349043</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="5">
         <v>13349025</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="5">
         <v>13349046</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>13349147</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8">
         <v>13349173</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="7">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8">
         <v>13349167</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
@@ -1905,32 +1930,32 @@
       <c r="B32" s="5">
         <v>13349008</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="5">
         <v>13349058</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="5">
         <v>13349062</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4" t="s">
@@ -1939,32 +1964,32 @@
       <c r="B36" s="5">
         <v>13331360</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="5">
         <v>13349155</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="5">
         <v>13349145</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
@@ -1973,32 +1998,32 @@
       <c r="B40" s="5">
         <v>13354007</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="5">
         <v>13354034</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="4"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="4"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4" t="s">
@@ -2007,32 +2032,32 @@
       <c r="B44" s="5">
         <v>13349007</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="4"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="5">
         <v>13349006</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="4"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="5">
         <v>13349016</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="4"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
@@ -2041,32 +2066,32 @@
       <c r="B48" s="5">
         <v>13349085</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="4"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="5">
         <v>13349109</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="5">
         <v>13349090</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="4"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
@@ -2075,32 +2100,32 @@
       <c r="B52" s="5">
         <v>13349101</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="4"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="5">
         <v>13349116</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="4"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="5">
         <v>13349114</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="4"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
@@ -2109,66 +2134,66 @@
       <c r="B56" s="5">
         <v>13349106</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="4"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="5">
         <v>13349123</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="4"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="5">
         <v>13349075</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="4"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="8">
         <v>13349063</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="7">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8">
         <v>13349041</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="7">
+      <c r="A62" s="6"/>
+      <c r="B62" s="8">
         <v>13349051</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4" t="s">
@@ -2177,32 +2202,32 @@
       <c r="B64" s="5">
         <v>13349136</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="4"/>
+      <c r="A65" s="6"/>
       <c r="B65" s="5">
         <v>13349139</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="4"/>
+      <c r="A66" s="6"/>
       <c r="B66" s="5">
         <v>13349154</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="4"/>
+      <c r="A67" s="6"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
+      <c r="C67" s="7"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4" t="s">
@@ -2211,547 +2236,547 @@
       <c r="B68" s="5">
         <v>13349128</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="4"/>
+      <c r="A69" s="6"/>
       <c r="B69" s="5">
         <v>13349119</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="4"/>
+      <c r="A70" s="6"/>
       <c r="B70" s="5">
         <v>13349133</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="4"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="11">
         <v>13349040</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10">
+      <c r="A73" s="13"/>
+      <c r="B73" s="11">
         <v>13349049</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10">
+      <c r="A74" s="13"/>
+      <c r="B74" s="11">
         <v>13349061</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="15">
         <v>13349071</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="9"/>
-      <c r="B77" s="13">
+      <c r="A77" s="13"/>
+      <c r="B77" s="15">
         <v>13349079</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="15">
         <v>13349047</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="15">
         <v>13331086</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="13">
+      <c r="A82" s="19"/>
+      <c r="B82" s="15">
         <v>13349138</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="16"/>
-      <c r="B83" s="13">
+      <c r="A83" s="19"/>
+      <c r="B83" s="15">
         <v>13349166</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="15"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="15">
         <v>13349036</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="9"/>
-      <c r="B86" s="13">
+      <c r="A86" s="13"/>
+      <c r="B86" s="15">
         <v>13349038</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="9"/>
-      <c r="B87" s="13">
+      <c r="A87" s="13"/>
+      <c r="B87" s="15">
         <v>13349028</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="15"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="15">
         <v>13349018</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="9"/>
-      <c r="B90" s="13">
+      <c r="A90" s="13"/>
+      <c r="B90" s="15">
         <v>13349020</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="9"/>
-      <c r="B91" s="13">
+      <c r="A91" s="13"/>
+      <c r="B91" s="15">
         <v>13349003</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="15"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="15">
         <v>13349144</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="9"/>
-      <c r="B94" s="13">
+      <c r="A94" s="13"/>
+      <c r="B94" s="15">
         <v>13354165</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="9"/>
-      <c r="B95" s="13">
+      <c r="A95" s="13"/>
+      <c r="B95" s="15">
         <v>13349165</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="15"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B97" s="20">
         <v>13349023</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="9"/>
-      <c r="B98" s="17">
+      <c r="A98" s="13"/>
+      <c r="B98" s="20">
         <v>13349027</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="9"/>
-      <c r="B99" s="17">
+      <c r="A99" s="13"/>
+      <c r="B99" s="20">
         <v>13349052</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="15"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="15">
         <v>13349068</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="9"/>
-      <c r="B102" s="13">
+      <c r="A102" s="13"/>
+      <c r="B102" s="15">
         <v>13349108</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="9"/>
-      <c r="B103" s="13">
+      <c r="A103" s="13"/>
+      <c r="B103" s="15">
         <v>13349121</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="15"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="11"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="15">
         <v>13349120</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="9"/>
-      <c r="B106" s="13">
+      <c r="A106" s="13"/>
+      <c r="B106" s="15">
         <v>13349122</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="9"/>
-      <c r="B107" s="13">
+      <c r="A107" s="13"/>
+      <c r="B107" s="15">
         <v>13349083</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="15"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="11"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="12"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="13">
+      <c r="B109" s="15">
         <v>13349050</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="19"/>
-      <c r="B110" s="13">
+      <c r="A110" s="23"/>
+      <c r="B110" s="15">
         <v>13349078</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="19"/>
-      <c r="B111" s="13">
+      <c r="A111" s="23"/>
+      <c r="B111" s="15">
         <v>13349005</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="15"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="11"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="12"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B113" s="13">
+      <c r="B113" s="15">
         <v>13349037</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="9"/>
-      <c r="B114" s="13">
+      <c r="A114" s="13"/>
+      <c r="B114" s="15">
         <v>13349055</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="9"/>
-      <c r="B115" s="13">
+      <c r="A115" s="13"/>
+      <c r="B115" s="15">
         <v>13349076</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="15"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="11"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="13">
+      <c r="B117" s="15">
         <v>13350025</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="9"/>
-      <c r="B118" s="13">
+      <c r="A118" s="13"/>
+      <c r="B118" s="15">
         <v>13349170</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="9"/>
-      <c r="B119" s="13">
+      <c r="A119" s="13"/>
+      <c r="B119" s="15">
         <v>13349152</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="15"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="11"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="12"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B121" s="13">
+      <c r="B121" s="15">
         <v>13341900</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="9"/>
-      <c r="B122" s="13">
+      <c r="A122" s="13"/>
+      <c r="B122" s="15">
         <v>13349035</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="9"/>
-      <c r="B123" s="13">
+      <c r="A123" s="13"/>
+      <c r="B123" s="15">
         <v>13349095</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="15"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="12"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="11">
         <v>12334185</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="20"/>
-      <c r="B126" s="13">
+      <c r="A126" s="19"/>
+      <c r="B126" s="15">
         <v>13349073</v>
       </c>
-      <c r="C126" s="14" t="s">
+      <c r="C126" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="20"/>
-      <c r="B127" s="13">
+      <c r="A127" s="19"/>
+      <c r="B127" s="15">
         <v>13349074</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="15"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="11"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="12"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="13">
+      <c r="B129" s="15">
         <v>13349059</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="9"/>
-      <c r="B130" s="13">
+      <c r="A130" s="13"/>
+      <c r="B130" s="15">
         <v>13349060</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="9"/>
-      <c r="B131" s="13">
+      <c r="A131" s="13"/>
+      <c r="B131" s="15">
         <v>13349009</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="22"/>
+      <c r="A132" s="24"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="4" t="s">
@@ -2765,7 +2790,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="4"/>
+      <c r="A134" s="6"/>
       <c r="B134" s="1">
         <v>13349032</v>
       </c>
@@ -2774,7 +2799,7 @@
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="4"/>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="4" t="s">
@@ -2788,7 +2813,7 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="4"/>
+      <c r="A137" s="6"/>
       <c r="B137" s="1">
         <v>13349163</v>
       </c>
@@ -2797,151 +2822,155 @@
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="4"/>
+      <c r="A138" s="6"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="26" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="23"/>
-      <c r="B140" s="24" t="s">
+      <c r="A140" s="6"/>
+      <c r="B140" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="26" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="23"/>
+      <c r="A141" s="6"/>
       <c r="B141" s="1">
         <v>13349093</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="4"/>
+      <c r="A142" s="6"/>
       <c r="C142" s="27"/>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="4"/>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="4"/>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="4"/>
+    <row r="143" spans="1:3">
+      <c r="A143" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="28"/>
+      <c r="B144" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="28"/>
+      <c r="B145" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="4"/>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="4"/>
+      <c r="A147" s="6"/>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C150" s="29" t="s">
-        <v>149</v>
+      <c r="B150" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C151" s="29" t="s">
-        <v>151</v>
+      <c r="B151" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C152" s="29" t="s">
-        <v>153</v>
+      <c r="B152" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C153" s="29" t="s">
-        <v>155</v>
+      <c r="B153" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C154" s="29" t="s">
-        <v>157</v>
+      <c r="B154" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C155" s="29" t="s">
-        <v>159</v>
+      <c r="B155" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>161</v>
+      <c r="B156" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C157" s="29" t="s">
-        <v>163</v>
+      <c r="B157" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C158" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3">
-      <c r="B159" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C159" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3">
-      <c r="B160" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C160" s="29" t="s">
-        <v>169</v>
+      <c r="B158" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C158" s="32" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A9:A11"/>
@@ -2978,6 +3007,7 @@
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="A136:A137"/>
     <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A143:A145"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/xlsx/kaggle组队名单.xlsx
+++ b/xlsx/kaggle组队名单.xlsx
@@ -480,7 +480,7 @@
     <t>伍泽林</t>
   </si>
   <si>
-    <t>未提交组队信息名单</t>
+    <t>DM038</t>
   </si>
   <si>
     <t>13349045</t>
@@ -501,6 +501,9 @@
     <t>邱戈</t>
   </si>
   <si>
+    <t>DM039</t>
+  </si>
+  <si>
     <t>13349097</t>
   </si>
   <si>
@@ -519,22 +522,19 @@
     <t>杨需云逸</t>
   </si>
   <si>
+    <t>DM040</t>
+  </si>
+  <si>
     <t>13349157</t>
   </si>
   <si>
     <t>张志凯</t>
   </si>
   <si>
-    <t>13349161</t>
-  </si>
-  <si>
-    <t>郑辉杰</t>
-  </si>
-  <si>
-    <t>13349169</t>
-  </si>
-  <si>
-    <t>钟少辉</t>
+    <t>09379099</t>
+  </si>
+  <si>
+    <t>王丞浠</t>
   </si>
 </sst>
 </file>
@@ -542,12 +542,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,13 +566,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -601,13 +594,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="Verdana"/>
@@ -620,46 +606,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,7 +642,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +665,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,13 +701,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -741,8 +726,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,14 +755,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -779,25 +771,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,13 +897,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,102 +939,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -930,36 +952,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,19 +983,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,6 +1009,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,15 +1037,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1056,17 +1052,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,10 +1085,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1105,137 +1097,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,88 +1243,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1649,10 +1626,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1673,10 +1650,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>13349158</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1684,8 +1661,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4">
         <v>13349159</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1693,14 +1670,14 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>13349130</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1708,30 +1685,30 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4">
         <v>13349064</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4">
         <v>13349065</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
@@ -1742,7 +1719,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>13349002</v>
       </c>
@@ -1751,7 +1728,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1">
         <v>13349022</v>
       </c>
@@ -1760,1026 +1737,1026 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>13349160</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4">
         <v>13349162</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>13354120</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4">
         <v>13349135</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4">
         <v>13349171</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>13349014</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4">
         <v>13354073</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4">
         <v>13349112</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>13349043</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4">
         <v>13349025</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4">
         <v>13349046</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>13349147</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="8">
+      <c r="A29" s="5"/>
+      <c r="B29" s="7">
         <v>13349173</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7">
         <v>13349167</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>13349008</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4">
         <v>13349058</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5">
+      <c r="A34" s="5"/>
+      <c r="B34" s="4">
         <v>13349062</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>13331360</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="4">
         <v>13349155</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="5">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4">
         <v>13349145</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>13354007</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5">
+      <c r="A41" s="5"/>
+      <c r="B41" s="4">
         <v>13354034</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>13349007</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4">
         <v>13349006</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4">
         <v>13349016</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="7"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>13349085</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="5">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4">
         <v>13349109</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="5">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4">
         <v>13349090</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>13349101</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4">
         <v>13349116</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="5">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4">
         <v>13349114</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>13349106</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="5">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4">
         <v>13349123</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="5">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4">
         <v>13349075</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>13349063</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="8">
+      <c r="A61" s="5"/>
+      <c r="B61" s="7">
         <v>13349041</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="8">
+      <c r="A62" s="5"/>
+      <c r="B62" s="7">
         <v>13349051</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>13349136</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="5">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4">
         <v>13349139</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="5">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4">
         <v>13349154</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>13349128</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="5">
+      <c r="A69" s="5"/>
+      <c r="B69" s="4">
         <v>13349119</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="5">
+      <c r="A70" s="5"/>
+      <c r="B70" s="4">
         <v>13349133</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="7"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>13349040</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="11">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10">
         <v>13349049</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="11">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10">
         <v>13349061</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="13">
         <v>13349071</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="13"/>
-      <c r="B77" s="15">
+      <c r="A77" s="9"/>
+      <c r="B77" s="13">
         <v>13349079</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="13">
         <v>13349047</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="13">
         <v>13331086</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="15">
+      <c r="A82" s="16"/>
+      <c r="B82" s="13">
         <v>13349138</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="15">
+      <c r="A83" s="16"/>
+      <c r="B83" s="13">
         <v>13349166</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="13">
         <v>13349036</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="13"/>
-      <c r="B86" s="15">
+      <c r="A86" s="9"/>
+      <c r="B86" s="13">
         <v>13349038</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="13"/>
-      <c r="B87" s="15">
+      <c r="A87" s="9"/>
+      <c r="B87" s="13">
         <v>13349028</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="13">
         <v>13349018</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="13"/>
-      <c r="B90" s="15">
+      <c r="A90" s="9"/>
+      <c r="B90" s="13">
         <v>13349020</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="13"/>
-      <c r="B91" s="15">
+      <c r="A91" s="9"/>
+      <c r="B91" s="13">
         <v>13349003</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="15">
+      <c r="B93" s="13">
         <v>13349144</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="13"/>
-      <c r="B94" s="15">
+      <c r="A94" s="9"/>
+      <c r="B94" s="13">
         <v>13354165</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="13"/>
-      <c r="B95" s="15">
+      <c r="A95" s="9"/>
+      <c r="B95" s="13">
         <v>13349165</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="17"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B97" s="17">
         <v>13349023</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="13"/>
-      <c r="B98" s="20">
+      <c r="A98" s="9"/>
+      <c r="B98" s="17">
         <v>13349027</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="13"/>
-      <c r="B99" s="20">
+      <c r="A99" s="9"/>
+      <c r="B99" s="17">
         <v>13349052</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="17"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="15">
+      <c r="B101" s="13">
         <v>13349068</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="13"/>
-      <c r="B102" s="15">
+      <c r="A102" s="9"/>
+      <c r="B102" s="13">
         <v>13349108</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="13"/>
-      <c r="B103" s="15">
+      <c r="A103" s="9"/>
+      <c r="B103" s="13">
         <v>13349121</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="17"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="11"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="15">
+      <c r="B105" s="13">
         <v>13349120</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="13"/>
-      <c r="B106" s="15">
+      <c r="A106" s="9"/>
+      <c r="B106" s="13">
         <v>13349122</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="13"/>
-      <c r="B107" s="15">
+      <c r="A107" s="9"/>
+      <c r="B107" s="13">
         <v>13349083</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="17"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="12"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="15">
+      <c r="B109" s="13">
         <v>13349050</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="23"/>
-      <c r="B110" s="15">
+      <c r="A110" s="19"/>
+      <c r="B110" s="13">
         <v>13349078</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="23"/>
-      <c r="B111" s="15">
+      <c r="A111" s="19"/>
+      <c r="B111" s="13">
         <v>13349005</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="17"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B113" s="15">
+      <c r="B113" s="13">
         <v>13349037</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="13"/>
-      <c r="B114" s="15">
+      <c r="A114" s="9"/>
+      <c r="B114" s="13">
         <v>13349055</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="13"/>
-      <c r="B115" s="15">
+      <c r="A115" s="9"/>
+      <c r="B115" s="13">
         <v>13349076</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="17"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="15">
+      <c r="B117" s="13">
         <v>13350025</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="13"/>
-      <c r="B118" s="15">
+      <c r="A118" s="9"/>
+      <c r="B118" s="13">
         <v>13349170</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="13"/>
-      <c r="B119" s="15">
+      <c r="A119" s="9"/>
+      <c r="B119" s="13">
         <v>13349152</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="17"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B121" s="15">
+      <c r="B121" s="13">
         <v>13341900</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="13"/>
-      <c r="B122" s="15">
+      <c r="A122" s="9"/>
+      <c r="B122" s="13">
         <v>13349035</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="13"/>
-      <c r="B123" s="15">
+      <c r="A123" s="9"/>
+      <c r="B123" s="13">
         <v>13349095</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="17"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="12"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="11"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="11">
+      <c r="B125" s="10">
         <v>12334185</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="19"/>
-      <c r="B126" s="15">
+      <c r="A126" s="16"/>
+      <c r="B126" s="13">
         <v>13349073</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="C126" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="19"/>
-      <c r="B127" s="15">
+      <c r="A127" s="16"/>
+      <c r="B127" s="13">
         <v>13349074</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C127" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="17"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="12"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="11"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="15">
+      <c r="B129" s="13">
         <v>13349059</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C129" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="13"/>
-      <c r="B130" s="15">
+      <c r="A130" s="9"/>
+      <c r="B130" s="13">
         <v>13349060</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="13"/>
-      <c r="B131" s="15">
+      <c r="A131" s="9"/>
+      <c r="B131" s="13">
         <v>13349009</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="C131" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="24"/>
+      <c r="A132" s="20"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B133" s="1">
@@ -2790,7 +2767,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="6"/>
+      <c r="A134" s="5"/>
       <c r="B134" s="1">
         <v>13349032</v>
       </c>
@@ -2799,10 +2776,10 @@
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="6"/>
+      <c r="A135" s="5"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B136" s="1">
@@ -2813,7 +2790,7 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="6"/>
+      <c r="A137" s="5"/>
       <c r="B137" s="1">
         <v>13349163</v>
       </c>
@@ -2822,30 +2799,30 @@
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="6"/>
+      <c r="A138" s="5"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="25" t="s">
+      <c r="B139" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="22" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="6"/>
-      <c r="B140" s="25" t="s">
+      <c r="A140" s="5"/>
+      <c r="B140" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="C140" s="22" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="6"/>
+      <c r="A141" s="5"/>
       <c r="B141" s="1">
         <v>13349093</v>
       </c>
@@ -2854,123 +2831,187 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="6"/>
-      <c r="C142" s="27"/>
+      <c r="A142" s="5"/>
+      <c r="C142" s="23"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="28" t="s">
+      <c r="A143" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="B143" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C143" s="30" t="s">
+      <c r="C143" s="25" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="28"/>
-      <c r="B144" s="31" t="s">
+      <c r="A144" s="5"/>
+      <c r="B144" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C144" s="32" t="s">
+      <c r="C144" s="26" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="28"/>
-      <c r="B145" s="31" t="s">
+      <c r="A145" s="5"/>
+      <c r="B145" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C145" s="32" t="s">
+      <c r="C145" s="26" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="6"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="6"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="3" t="s">
+      <c r="A146" s="5"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="B150" s="31" t="s">
+      <c r="B147" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C150" s="32" t="s">
+      <c r="C147" s="26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="2:3">
-      <c r="B151" s="31" t="s">
+    <row r="148" spans="1:3">
+      <c r="A148" s="5"/>
+      <c r="B148" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C151" s="32" t="s">
+      <c r="C148" s="26" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="2:3">
-      <c r="B152" s="31" t="s">
+    <row r="149" spans="1:3">
+      <c r="A149" s="5"/>
+      <c r="B149" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C152" s="32" t="s">
+      <c r="C149" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="153" spans="2:3">
-      <c r="B153" s="31" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="5"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C153" s="32" t="s">
+      <c r="B151" s="24" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154" s="31" t="s">
+      <c r="C151" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C154" s="32" t="s">
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="5"/>
+      <c r="B152" s="24" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="B155" s="31" t="s">
+      <c r="C152" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C155" s="32" t="s">
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="5"/>
+      <c r="B153" s="24" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="B156" s="31" t="s">
+      <c r="C153" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C156" s="32" t="s">
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="5"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="31" t="s">
+      <c r="B155" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C157" s="32" t="s">
+      <c r="C155" s="26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="158" spans="2:3">
-      <c r="B158" s="31" t="s">
+    <row r="156" spans="1:3">
+      <c r="A156" s="5"/>
+      <c r="B156" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C158" s="32" t="s">
+      <c r="C156" s="25" t="s">
         <v>172</v>
       </c>
     </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="5"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="26"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="5"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="5"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164"/>
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165"/>
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166"/>
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167"/>
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168"/>
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169"/>
+      <c r="C169"/>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170"/>
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171"/>
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172"/>
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173"/>
+      <c r="C173"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A9:A11"/>
@@ -3008,6 +3049,9 @@
     <mergeCell ref="A136:A137"/>
     <mergeCell ref="A139:A141"/>
     <mergeCell ref="A143:A145"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="A155:A157"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/xlsx/kaggle组队名单.xlsx
+++ b/xlsx/kaggle组队名单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>队名</t>
   </si>
@@ -489,16 +489,16 @@
     <t>靳韬</t>
   </si>
   <si>
-    <t>13349089</t>
-  </si>
-  <si>
-    <t>戚皓泰</t>
-  </si>
-  <si>
-    <t>13349091</t>
-  </si>
-  <si>
-    <t>邱戈</t>
+    <t>13349157</t>
+  </si>
+  <si>
+    <t>张志凯</t>
+  </si>
+  <si>
+    <t>09379099</t>
+  </si>
+  <si>
+    <t>王丞浠</t>
   </si>
   <si>
     <t>DM039</t>
@@ -520,21 +520,6 @@
   </si>
   <si>
     <t>杨需云逸</t>
-  </si>
-  <si>
-    <t>DM040</t>
-  </si>
-  <si>
-    <t>13349157</t>
-  </si>
-  <si>
-    <t>张志凯</t>
-  </si>
-  <si>
-    <t>09379099</t>
-  </si>
-  <si>
-    <t>王丞浠</t>
   </si>
 </sst>
 </file>
@@ -542,10 +527,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -620,14 +605,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,18 +643,40 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,7 +688,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,73 +720,26 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -771,187 +756,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,11 +965,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,31 +1010,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,26 +1047,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,149 +1070,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1304,6 +1289,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,7 +1617,7 @@
   <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2882,16 +2870,16 @@
       <c r="B148" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="27" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5"/>
-      <c r="B149" s="24" t="s">
+      <c r="B149" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="25" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2930,30 +2918,17 @@
     <row r="154" spans="1:1">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B155" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C155" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="5"/>
-      <c r="B156" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C156" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="5"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="26"/>
+    <row r="155" spans="2:3">
+      <c r="B155"/>
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156"/>
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157"/>
+      <c r="C157"/>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="5"/>
@@ -3011,7 +2986,7 @@
       <c r="C173"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="39">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A9:A11"/>
@@ -3051,7 +3026,6 @@
     <mergeCell ref="A143:A145"/>
     <mergeCell ref="A147:A149"/>
     <mergeCell ref="A151:A153"/>
-    <mergeCell ref="A155:A157"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
